--- a/03 Especificación de Requerimientos/URI-ESRE-CRREQ-24-09-18.xlsx
+++ b/03 Especificación de Requerimientos/URI-ESRE-CRREQ-24-09-18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fponce\Desktop\Evolucion TP\03 Especificación de Requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fponce\Desktop\Nueva carpeta (2)\TPEvolucion_2018_02\03 Especificación de Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F546011E-620F-461B-8CC9-17E0AC8CEE32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B23DC23-EF9D-425E-8C7A-EFAA6E167E6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Requerimientos</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>1.0</t>
-  </si>
-  <si>
-    <t>Diego Guevara</t>
   </si>
   <si>
     <t>El sistema le permitirá al usuario poder iniciar sesion en la aplicación mediante un formulario login donde ingresara con su nickname y contraseña.</t>
@@ -95,9 +92,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d\.m"/>
-  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -198,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -211,15 +205,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -548,7 +533,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -571,7 +556,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -580,155 +565,185 @@
       <c r="C2" s="4">
         <v>43368</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="3"/>
+      <c r="C3" s="4">
+        <v>43373</v>
+      </c>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4">
+        <v>43344</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="4">
+        <v>43360</v>
+      </c>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="4">
+        <v>43362</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="B7" s="3"/>
+      <c r="C7" s="4">
+        <v>43367</v>
+      </c>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="B8" s="3"/>
+      <c r="C8" s="4">
+        <v>43400</v>
+      </c>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="4">
+        <v>43403</v>
+      </c>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="4">
+        <v>43374</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="4">
+        <v>43388</v>
+      </c>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="4">
+        <v>43390</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="4">
+        <v>43392</v>
+      </c>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="4">
+        <v>43398</v>
+      </c>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="4">
+        <v>43403</v>
+      </c>
+      <c r="D15" s="5"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="4">
+        <v>43409</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="4">
+        <v>43386</v>
+      </c>
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4">
+        <v>43398</v>
+      </c>
       <c r="D18" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
+      <c r="A27" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03 Especificación de Requerimientos/URI-ESRE-CRREQ-24-09-18.xlsx
+++ b/03 Especificación de Requerimientos/URI-ESRE-CRREQ-24-09-18.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fponce\Desktop\Nueva carpeta (2)\TPEvolucion_2018_02\03 Especificación de Requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fponce\Desktop\Evolucion\CommitLog\TPEvolucion_2018_02\03 Especificación de Requerimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1B23DC23-EF9D-425E-8C7A-EFAA6E167E6D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3B8E91B9-0280-40F6-91FC-EBA65A262541}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,8 +532,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -563,7 +563,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4">
-        <v>43368</v>
+        <v>43398</v>
       </c>
       <c r="D2" s="5"/>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="4">
-        <v>43373</v>
+        <v>43398</v>
       </c>
       <c r="D3" s="5"/>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="4">
-        <v>43344</v>
+        <v>43398</v>
       </c>
       <c r="D4" s="5"/>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="4">
-        <v>43360</v>
+        <v>43404</v>
       </c>
       <c r="D5" s="5"/>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="4">
-        <v>43362</v>
+        <v>43408</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -613,7 +613,7 @@
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="4">
-        <v>43367</v>
+        <v>43409</v>
       </c>
       <c r="D7" s="5"/>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="4">
-        <v>43400</v>
+        <v>43410</v>
       </c>
       <c r="D8" s="5"/>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
-        <v>43403</v>
+        <v>43412</v>
       </c>
       <c r="D9" s="5"/>
     </row>
@@ -643,7 +643,7 @@
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="4">
-        <v>43374</v>
+        <v>43414</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="4">
-        <v>43388</v>
+        <v>43419</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="4">
-        <v>43390</v>
+        <v>43422</v>
       </c>
       <c r="D12" s="5"/>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="4">
-        <v>43392</v>
+        <v>43422</v>
       </c>
       <c r="D13" s="5"/>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4">
-        <v>43398</v>
+        <v>43423</v>
       </c>
       <c r="D14" s="5"/>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="4">
-        <v>43403</v>
+        <v>43424</v>
       </c>
       <c r="D15" s="5"/>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="4">
-        <v>43409</v>
+        <v>43429</v>
       </c>
       <c r="D16" s="5"/>
     </row>
@@ -713,7 +713,7 @@
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="4">
-        <v>43386</v>
+        <v>43430</v>
       </c>
       <c r="D17" s="5"/>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="4">
-        <v>43398</v>
+        <v>43402</v>
       </c>
       <c r="D18" s="5"/>
     </row>
